--- a/biology/Botanique/Wawona_Tree/Wawona_Tree.xlsx
+++ b/biology/Botanique/Wawona_Tree/Wawona_Tree.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Wawona Tree, également connu sous le nom de Wawona Tunnel Tree, était un fameux séquoia géant de Mariposa Grove dans le parc national de Yosemite.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1881, un tunnel fut creusé à la base de son tronc, élargissant une brèche faite par le feu. L'arbre devint alors une attraction réputée.
 En 1969, des chutes de neige déposèrent sur l'arbre une couche dont le poids fut estimé à deux tonnes et qui provoqua la chute de l'arbre. Celui-ci fut renommé en The Fallen Tunnel Tree.
